--- a/src/test/resources/dataTest/Login.xlsx
+++ b/src/test/resources/dataTest/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumJava\SeleniumAutoTestParallel092024\src\test\resources\dataTest\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>TCS_NAME</t>
   </si>
@@ -115,20 +115,13 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>✅</t>
-  </si>
-  <si>
-    <t>❎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -170,64 +163,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,23 +482,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.109375"/>
-    <col min="3" max="3" customWidth="true" width="18.5546875"/>
-    <col min="4" max="4" customWidth="true" width="18.21875"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -543,21 +506,21 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>123456</v>
       </c>
-      <c r="D2" t="s" s="7">
-        <v>30</v>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>123456</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -565,18 +528,18 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>12345678</v>
       </c>
-      <c r="D4" t="s" s="16">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="0">
+      <c r="C5">
         <v>123456</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -584,7 +547,7 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -604,134 +567,134 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.109375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.33203125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.33203125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.21875"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>123456789</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>100000</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>123456780</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>100000</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -741,6 +704,7 @@
     <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -754,21 +718,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.33203125"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -776,10 +740,10 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>123456</v>
       </c>
-      <c r="D2" t="s" s="17">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -787,10 +751,10 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>123456</v>
       </c>
-      <c r="D3" t="s" s="18">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -798,10 +762,10 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>123456</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -809,10 +773,10 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>123456</v>
       </c>
-      <c r="D5" t="s" s="20">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
